--- a/MVP.Generate.Excel/Template/Sale_Tracking.xlsx
+++ b/MVP.Generate.Excel/Template/Sale_Tracking.xlsx
@@ -168,9 +168,6 @@
     <t>{{item.OrderDate}}</t>
   </si>
   <si>
-    <t>{{item.TypefOrder}}</t>
-  </si>
-  <si>
     <t>{{item.Status}}</t>
   </si>
   <si>
@@ -280,6 +277,9 @@
   </si>
   <si>
     <t>{{item.UcashPointsEarning.Total}}</t>
+  </si>
+  <si>
+    <t>{{item.TypeOrder}}</t>
   </si>
 </sst>
 </file>
@@ -503,6 +503,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -526,18 +538,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -822,8 +822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.25"/>
@@ -865,10 +865,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="16"/>
+      <c r="B1" s="20"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -879,23 +879,23 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="14"/>
-      <c r="M1" s="17" t="s">
+      <c r="L1" s="18"/>
+      <c r="M1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="18"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="12" t="s">
+      <c r="N1" s="22"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
       <c r="V1" s="2" t="s">
         <v>4</v>
       </c>
@@ -908,27 +908,27 @@
       <c r="Y1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="Z1" s="12" t="s">
+      <c r="Z1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="AA1" s="13"/>
-      <c r="AB1" s="13"/>
-      <c r="AC1" s="14"/>
-      <c r="AD1" s="12" t="s">
+      <c r="AA1" s="17"/>
+      <c r="AB1" s="17"/>
+      <c r="AC1" s="18"/>
+      <c r="AD1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="AE1" s="13"/>
-      <c r="AF1" s="13"/>
-      <c r="AG1" s="13"/>
-      <c r="AH1" s="14"/>
-      <c r="AI1" s="12" t="s">
+      <c r="AE1" s="17"/>
+      <c r="AF1" s="17"/>
+      <c r="AG1" s="17"/>
+      <c r="AH1" s="18"/>
+      <c r="AI1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="AJ1" s="13"/>
-      <c r="AK1" s="13"/>
-      <c r="AL1" s="13"/>
-      <c r="AM1" s="13"/>
-      <c r="AN1" s="14"/>
+      <c r="AJ1" s="17"/>
+      <c r="AK1" s="17"/>
+      <c r="AL1" s="17"/>
+      <c r="AM1" s="17"/>
+      <c r="AN1" s="18"/>
     </row>
     <row r="2" spans="1:40">
       <c r="A2" s="5" t="s">
@@ -1053,125 +1053,125 @@
       </c>
     </row>
     <row r="3" spans="1:40" s="11" customFormat="1">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="E3" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="F3" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="G3" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="H3" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="I3" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="J3" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="J3" s="22" t="s">
+      <c r="K3" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="L3" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="M3" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="M3" s="21" t="s">
+      <c r="N3" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="O3" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="N3" s="21" t="s">
+      <c r="P3" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="O3" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="P3" s="21" t="s">
+      <c r="Q3" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="Q3" s="21" t="s">
+      <c r="R3" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="R3" s="21" t="s">
+      <c r="S3" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="S3" s="6" t="s">
+      <c r="T3" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="T3" s="6" t="s">
+      <c r="U3" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="U3" s="6" t="s">
+      <c r="V3" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="V3" s="20" t="s">
+      <c r="W3" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="W3" s="21" t="s">
+      <c r="X3" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="X3" s="21" t="s">
+      <c r="Y3" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="Y3" s="21" t="s">
+      <c r="Z3" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="Z3" s="6" t="s">
+      <c r="AA3" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="AA3" s="6" t="s">
+      <c r="AB3" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="AB3" s="6" t="s">
+      <c r="AC3" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="AC3" s="21" t="s">
+      <c r="AD3" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="AD3" s="21" t="s">
+      <c r="AE3" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="AE3" s="6" t="s">
+      <c r="AF3" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="AF3" s="6" t="s">
+      <c r="AG3" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="AG3" s="20" t="s">
+      <c r="AH3" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="AH3" s="21" t="s">
+      <c r="AI3" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="AI3" s="6" t="s">
+      <c r="AJ3" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="AJ3" s="6" t="s">
+      <c r="AK3" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="AK3" s="6" t="s">
+      <c r="AL3" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="AL3" s="6" t="s">
+      <c r="AM3" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="AM3" s="6" t="s">
+      <c r="AN3" s="6" t="s">
         <v>82</v>
-      </c>
-      <c r="AN3" s="6" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:40">

--- a/MVP.Generate.Excel/Template/Sale_Tracking.xlsx
+++ b/MVP.Generate.Excel/Template/Sale_Tracking.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Urry\MVP.Generate.Excel\MVP.Generate.Excel\Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Urry\mvp_report\MVP.Generate.Excel\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7992788B-F42C-44F3-9178-CAD317B9ED1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sales Tracking" sheetId="1" r:id="rId1"/>
@@ -222,15 +223,6 @@
     <t> {{item.Promotions.TotalRedemption}}</t>
   </si>
   <si>
-    <t>{{item.Vendor.Name}}</t>
-  </si>
-  <si>
-    <t>{{item.Vendor.BasePrice}}</t>
-  </si>
-  <si>
-    <t>{{item.Vendor.Tax}}</t>
-  </si>
-  <si>
     <t>{{item.NSRRedemptions}}</t>
   </si>
   <si>
@@ -280,12 +272,21 @@
   </si>
   <si>
     <t>{{item.TypeOrder}}</t>
+  </si>
+  <si>
+    <t>{{item.Purchase.Name}}</t>
+  </si>
+  <si>
+    <t>{{item.Purchase.BasePrice}}</t>
+  </si>
+  <si>
+    <t>{{item.Purchase.Tax}}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7">
     <font>
       <sz val="11"/>
@@ -472,7 +473,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -539,10 +540,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -819,49 +823,56 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="U1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="X3" sqref="X3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="13.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.140625" style="4" customWidth="1"/>
-    <col min="3" max="5" width="13.140625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="13.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="8.7109375" style="4"/>
-    <col min="16" max="16" width="10.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="19.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="8.7109375" style="4"/>
-    <col min="25" max="25" width="15.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="15.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="11" style="4" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="8.7109375" style="4"/>
-    <col min="30" max="30" width="10" style="4" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="15.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="11" style="4" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="11" style="4" customWidth="1"/>
-    <col min="34" max="34" width="8.7109375" style="4"/>
-    <col min="35" max="35" width="12.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="15.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="15.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="38" max="39" width="16.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="40" max="16384" width="8.7109375" style="4"/>
+    <col min="1" max="1" width="21.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="25.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="36.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="26" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="32.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="33.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="33.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="37" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="23" style="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="25.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="19.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="25.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="27.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="33.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="29.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="22.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="27.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="32.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="28.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="24.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="21.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="46.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="44" style="4" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="43.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="45.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="44.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="33.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="41" max="16384" width="8.7109375" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15">
@@ -869,7 +880,7 @@
         <v>43</v>
       </c>
       <c r="B1" s="20"/>
-      <c r="C1" s="1"/>
+      <c r="C1" s="24"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1" t="s">
@@ -1060,7 +1071,7 @@
         <v>45</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>46</v>
@@ -1117,61 +1128,61 @@
         <v>63</v>
       </c>
       <c r="V3" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="W3" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="X3" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y3" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="W3" s="13" t="s">
+      <c r="Z3" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="X3" s="13" t="s">
+      <c r="AA3" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="Y3" s="13" t="s">
+      <c r="AB3" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="Z3" s="6" t="s">
+      <c r="AC3" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="AA3" s="6" t="s">
+      <c r="AD3" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="AB3" s="6" t="s">
+      <c r="AE3" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="AC3" s="13" t="s">
+      <c r="AF3" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="AD3" s="13" t="s">
+      <c r="AG3" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="AE3" s="6" t="s">
+      <c r="AH3" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="AF3" s="6" t="s">
+      <c r="AI3" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="AG3" s="12" t="s">
+      <c r="AJ3" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="AH3" s="13" t="s">
+      <c r="AK3" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="AI3" s="6" t="s">
+      <c r="AL3" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="AJ3" s="6" t="s">
+      <c r="AM3" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="AK3" s="6" t="s">
+      <c r="AN3" s="6" t="s">
         <v>79</v>
-      </c>
-      <c r="AL3" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="AM3" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="AN3" s="6" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:40">
@@ -1219,12 +1230,12 @@
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="AI1:AN1"/>
-    <mergeCell ref="A1:B1"/>
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="M1:O1"/>
     <mergeCell ref="P1:U1"/>
     <mergeCell ref="Z1:AC1"/>
     <mergeCell ref="AD1:AH1"/>
+    <mergeCell ref="A1:C1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
